--- a/Datasets/IPC.xlsx
+++ b/Datasets/IPC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardohuapaya/Documents/Projects/stochasticRich/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9CEE3F6-605F-4243-B34E-2D334E39966B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ED3A1A-24A2-C243-841B-CE401B3BDC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8140" yWindow="1340" windowWidth="27240" windowHeight="16440" xr2:uid="{3AA8EA44-45C4-664A-891E-B58FB1462950}"/>
   </bookViews>
@@ -862,9 +862,6 @@
     <t>ipc_salud</t>
   </si>
   <si>
-    <t>ipc_tranportation</t>
-  </si>
-  <si>
     <t>ipc_coms</t>
   </si>
   <si>
@@ -881,6 +878,9 @@
   </si>
   <si>
     <t>ipc_other</t>
+  </si>
+  <si>
+    <t>ipc_transp</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1237,7 @@
   <dimension ref="A1:O268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1271,25 +1271,25 @@
         <v>274</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
